--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="97">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -107,6 +107,12 @@
 0：无校验
 1：奇校验
 2：偶校验</t>
+  </si>
+  <si>
+    <t>device_num</t>
+  </si>
+  <si>
+    <t>接入的设备数量</t>
   </si>
   <si>
     <t>device_attr</t>
@@ -133,7 +139,7 @@
     <t>设备号</t>
   </si>
   <si>
-    <t>addr</t>
+    <t>device_addr</t>
   </si>
   <si>
     <t>设备从机地址</t>
@@ -177,12 +183,6 @@
   <si>
     <t>0：modbus协议
 1：CAN协议</t>
-  </si>
-  <si>
-    <t>config</t>
-  </si>
-  <si>
-    <t>配置</t>
   </si>
   <si>
     <t>设备
@@ -212,13 +212,13 @@
     <t>area_attr[0]</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>开始地址</t>
-  </si>
-  <si>
-    <t>end</t>
+    <t>reg_addr</t>
+  </si>
+  <si>
+    <t>寄存器地址</t>
+  </si>
+  <si>
+    <t>reg_num</t>
   </si>
   <si>
     <t>结束地址</t>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>读取周期（单位ms）</t>
-  </si>
-  <si>
-    <t>area_attr[1]</t>
   </si>
   <si>
     <t>node</t>
@@ -292,12 +289,6 @@
 18  BITS位+Enum枚举</t>
   </si>
   <si>
-    <t>reg_addr</t>
-  </si>
-  <si>
-    <t>寄存器地址</t>
-  </si>
-  <si>
     <t>bit_field_msb</t>
   </si>
   <si>
@@ -347,19 +338,19 @@
     <t>enum_attr[0]</t>
   </si>
   <si>
+    <t>“100”(举例子，名称根据转换关系命名)</t>
+  </si>
+  <si>
     <t>举例子数值：0，程序根据名称转换</t>
   </si>
   <si>
-    <t>“100”(举例子，名称根据转换关系命名)</t>
+    <t>enum_attr[1]</t>
+  </si>
+  <si>
+    <t>“101”(举例子，名称根据转换关系命名)</t>
   </si>
   <si>
     <t>举例子数值：1</t>
-  </si>
-  <si>
-    <t>enum_attr[1]</t>
-  </si>
-  <si>
-    <t>“101”(举例子，名称根据转换关系命名)</t>
   </si>
   <si>
     <t>{
@@ -790,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -884,6 +875,17 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1011,7 +1013,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1023,34 +1025,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
@@ -1135,7 +1137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1154,6 +1156,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1178,6 +1189,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1193,12 +1213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,11 +1222,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1567,10 +1578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1587,23 +1598,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
@@ -1630,703 +1641,742 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="21"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="21"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" ht="54" spans="1:17">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="25"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="21"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="18" t="s">
+      <c r="H12" s="4"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="25"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" ht="94.5" spans="1:17">
+      <c r="A14" s="25"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="25"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="25"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="25"/>
+      <c r="B17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="25"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="25"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="25"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="25"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="4" t="s">
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="25"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="25"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-    </row>
-    <row r="13" ht="94.5" spans="1:17">
-      <c r="A13" s="21"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="21"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="7" t="s">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" ht="94.5" spans="1:17">
+      <c r="A24" s="25"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="26" t="s">
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="21"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="7" t="s">
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="25"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="21"/>
-      <c r="B16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="21"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="21"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="21"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="21"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="21"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" ht="94.5" spans="1:17">
-      <c r="A22" s="21"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="21"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="21"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="21"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="29" t="s">
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="25"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="29" t="s">
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="54" spans="1:17">
-      <c r="A26" s="30"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="7" t="s">
+    <row r="27" spans="1:17">
+      <c r="A27" s="25"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="31" t="s">
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="34"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
+    </row>
+    <row r="28" ht="54" spans="1:17">
+      <c r="A28" s="33"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="35"/>
-      <c r="K29" s="33"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="38"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="39"/>
-      <c r="H39" s="37"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C4:F4"/>
@@ -2336,21 +2386,23 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A3:A26"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C5:C16"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="H37:H38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2360,17 +2412,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.38938053097345" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3893805309735" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7964601769912" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7964601769912" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.929203539823" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.0619469026549" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5929203539823" style="1" customWidth="1"/>
@@ -2415,10 +2467,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -2446,7 +2498,7 @@
     <row r="4" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2458,257 +2510,265 @@
         <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="94.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" ht="94.5" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>47</v>
+      <c r="J6" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="3" t="s">
-        <v>15</v>
+      <c r="I13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" ht="67.5" spans="1:10">
       <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" ht="270" spans="1:10">
       <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>62</v>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2716,26 +2776,26 @@
         <v>15</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2"/>
@@ -2743,7 +2803,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2751,35 +2811,33 @@
       <c r="I21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" ht="67.5" spans="1:10">
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" ht="270" spans="1:10">
+      <c r="J22" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2787,26 +2845,26 @@
       <c r="I23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" ht="135" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>74</v>
+      <c r="I24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2814,17 +2872,17 @@
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>76</v>
+      <c r="J25" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2832,33 +2890,30 @@
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2866,36 +2921,34 @@
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" ht="135" spans="1:10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="4" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2"/>
@@ -2903,375 +2956,288 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="3" t="s">
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="3"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="38">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="C6:H6"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="D8:H8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A3:A35"/>
-    <mergeCell ref="B5:B17"/>
-    <mergeCell ref="B18:B35"/>
-    <mergeCell ref="C7:C17"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="D9:D17"/>
-    <mergeCell ref="D20:D35"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="G11:H13"/>
-    <mergeCell ref="A40:J58"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A3:A30"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B30"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C15:C30"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D15:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A35:J53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3282,17 +3248,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.38938053097345" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3893805309735" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7964601769912" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7964601769912" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.929203539823" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.0619469026549" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5929203539823" style="1" customWidth="1"/>
@@ -3305,7 +3271,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3337,10 +3303,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -3368,7 +3334,7 @@
     <row r="4" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3380,151 +3346,151 @@
         <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="94.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="94.5" spans="1:10">
+        <v>15</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:10">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="67.5" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="67.5" spans="1:10">
+      <c r="J10" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="270" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="270" spans="1:10">
+      <c r="J11" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
-        <v>71</v>
+      <c r="E12" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>72</v>
+      <c r="I12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -3532,17 +3498,17 @@
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="7" t="s">
-        <v>95</v>
+      <c r="E13" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>96</v>
+      <c r="I13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
@@ -3550,17 +3516,17 @@
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="7" t="s">
-        <v>97</v>
+      <c r="E14" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>98</v>
+      <c r="I14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
@@ -3568,87 +3534,87 @@
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="7" t="s">
-        <v>75</v>
+      <c r="E15" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="I15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="7" t="s">
-        <v>77</v>
+      <c r="E16" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="13"/>
+      <c r="I16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="135" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="135" spans="1:10">
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>83</v>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:10">
@@ -3658,16 +3624,14 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:10">
       <c r="A21" s="2"/>
@@ -3675,15 +3639,14 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:10">
       <c r="A22" s="2"/>
@@ -3692,12 +3655,15 @@
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I22" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -3707,16 +3673,14 @@
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:10">
       <c r="A24" s="2"/>
@@ -3725,43 +3689,27 @@
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="28">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
@@ -3771,19 +3719,17 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="C9:C25"/>
-    <mergeCell ref="D9:D25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="B6:B24"/>
+    <mergeCell ref="C8:C24"/>
+    <mergeCell ref="D8:D24"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="96">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -351,59 +351,6 @@
   </si>
   <si>
     <t>举例子数值：1</t>
-  </si>
-  <si>
-    <t>{
-    "protocol": "0",
-    "config": {
-        "device_type": 0,
-        "port": 1,
-        "addr": 1,
-        "area": {
-            "area_num": 2,
-            "area_attr": [
-                {
-                    "start": 0,
-                    "end": 10,
-                    "cycle": 100
-                },
-                {
-                    "start": 20,
-                    "end": 40,
-                    "cycle": 200
-                }
-            ]
-        }
-    },
-    "node": {
-        "node_num": 1,
-        "node_attr": [
-            {
-                "id": 100,
-                "date_type": 17,
-                "reg_addr": 1,
-                "bit_field_msb": 4,
-                "bit_field_lsb": 0,
-                "factor": 1,
-                "offset": 0,
-                "enum": {
-                    "enum_num": 3,
-                    "enum_attr": [
-                        {
-                            "20": 1
-                        },
-                        {
-                            "21": 2
-                        },
-                        {
-                            "22": 3
-                        }
-                    ]
-                }
-            }
-        ]
-    }
-}</t>
   </si>
   <si>
     <t>CAN cJSON</t>
@@ -1137,7 +1084,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1200,12 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1581,7 +1522,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1608,13 +1549,13 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="13"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
@@ -1641,16 +1582,16 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="17"/>
@@ -1662,16 +1603,16 @@
         <v>10</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="25"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1683,18 +1624,18 @@
         <v>12</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="25"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="18"/>
@@ -1704,19 +1645,19 @@
         <v>10</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="25"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="17"/>
@@ -1727,19 +1668,19 @@
       <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="25"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="6"/>
@@ -1750,19 +1691,19 @@
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="25"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="6"/>
@@ -1773,19 +1714,19 @@
       <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="25"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6"/>
@@ -1796,19 +1737,19 @@
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" ht="54" spans="1:17">
-      <c r="A10" s="25"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="6"/>
@@ -1819,19 +1760,19 @@
       <c r="H10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="25"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="17"/>
@@ -1842,19 +1783,19 @@
       <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="25"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="10"/>
@@ -1863,20 +1804,20 @@
         <v>12</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="17"/>
@@ -1884,20 +1825,20 @@
         <v>10</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" ht="94.5" spans="1:17">
-      <c r="A14" s="25"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1907,43 +1848,43 @@
       <c r="H14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="25"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="25"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="10" t="s">
         <v>33</v>
       </c>
@@ -1953,39 +1894,39 @@
       <c r="H16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="25"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="25"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="17"/>
@@ -1995,18 +1936,18 @@
         <v>10</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="25"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="10" t="s">
         <v>14</v>
       </c>
@@ -2018,18 +1959,18 @@
       <c r="H19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="25"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2041,19 +1982,19 @@
       <c r="H20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="25"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="28" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="17"/>
@@ -2066,10 +2007,10 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="25"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="24" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="17"/>
@@ -2080,25 +2021,25 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="25"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" ht="94.5" spans="1:17">
-      <c r="A24" s="25"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="10" t="s">
         <v>29</v>
       </c>
@@ -2110,270 +2051,270 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="25"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="25"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="32" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="30" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="25"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="32" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:17">
-      <c r="A28" s="33"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="36"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="34"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="41"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="40"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2414,8 +2355,8 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2969,237 +2910,235 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="37">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -3237,7 +3176,6 @@
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A35:J53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3250,7 +3188,7 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -3271,7 +3209,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3481,7 +3419,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3490,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -3499,7 +3437,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3508,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
@@ -3663,7 +3601,7 @@
         <v>15</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="97">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -79,7 +79,7 @@
     <t>number</t>
   </si>
   <si>
-    <t>端口</t>
+    <t>端口,从1开始</t>
   </si>
   <si>
     <t>baud</t>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>CAN[0]</t>
+  </si>
+  <si>
+    <t>端口，从1开始</t>
   </si>
   <si>
     <t>master_addr</t>
@@ -1521,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1957,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -2073,13 +2076,13 @@
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2089,13 +2092,13 @@
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:17">
@@ -2105,13 +2108,13 @@
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="F28" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
@@ -2355,8 +2358,8 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2408,10 +2411,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -2439,7 +2442,7 @@
     <row r="4" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2451,7 +2454,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" ht="94.5" spans="1:10">
@@ -2469,13 +2472,13 @@
         <v>15</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
@@ -2487,14 +2490,14 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
@@ -2505,14 +2508,14 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
@@ -2529,7 +2532,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
@@ -2546,7 +2549,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
@@ -2555,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2564,7 +2567,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -2573,7 +2576,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2582,7 +2585,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
@@ -2591,13 +2594,13 @@
         <v>15</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2609,14 +2612,14 @@
         <v>10</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2627,17 +2630,17 @@
         <v>15</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2654,7 +2657,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2663,7 +2666,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="67.5" spans="1:10">
@@ -2672,7 +2675,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
@@ -2681,7 +2684,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="270" spans="1:10">
@@ -2690,7 +2693,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2699,7 +2702,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2708,7 +2711,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2717,7 +2720,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2726,7 +2729,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2735,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2744,7 +2747,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2760,7 +2763,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2769,7 +2772,7 @@
         <v>15</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2778,7 +2781,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2787,7 +2790,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="135" spans="1:10">
@@ -2796,7 +2799,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2805,7 +2808,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2815,7 +2818,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2823,7 +2826,7 @@
         <v>15</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2833,7 +2836,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2850,7 +2853,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
@@ -2866,13 +2869,13 @@
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2883,7 +2886,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
@@ -2900,13 +2903,13 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3209,7 +3212,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3241,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -3272,7 +3275,7 @@
     <row r="4" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3284,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="94.5" spans="1:10">
@@ -3302,13 +3305,13 @@
         <v>15</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3320,14 +3323,14 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3338,17 +3341,17 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3365,7 +3368,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3374,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="67.5" spans="1:10">
@@ -3383,7 +3386,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
@@ -3392,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="270" spans="1:10">
@@ -3401,7 +3404,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3410,7 +3413,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:10">
@@ -3419,7 +3422,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3428,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -3437,7 +3440,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3446,7 +3449,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
@@ -3455,7 +3458,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3464,7 +3467,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
@@ -3473,7 +3476,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3489,7 +3492,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3498,7 +3501,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:10">
@@ -3507,7 +3510,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
@@ -3516,7 +3519,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="135" spans="1:10">
@@ -3525,7 +3528,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3534,7 +3537,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
@@ -3544,7 +3547,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -3552,7 +3555,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:10">
@@ -3562,7 +3565,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3579,7 +3582,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
@@ -3595,13 +3598,13 @@
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -3612,7 +3615,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
@@ -3629,13 +3632,13 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -130,7 +130,9 @@
 2：电表
 3：消防
 4：柴油发动机
-5：光伏逆变器</t>
+5：光伏
+6：冷水机
+7：除湿器</t>
   </si>
   <si>
     <t>device_no</t>
@@ -194,7 +196,9 @@
 2：电表
 3：消防
 4：柴油发动机
-5：光伏逆变器</t>
+5：光伏
+6：冷水机
+7：除湿器</t>
   </si>
   <si>
     <t>area</t>
@@ -1524,8 +1528,8 @@
   <sheetPr/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1836,7 +1840,7 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
     </row>
-    <row r="14" ht="94.5" spans="1:17">
+    <row r="14" ht="121.5" spans="1:17">
       <c r="A14" s="23"/>
       <c r="B14" s="2"/>
       <c r="C14" s="23"/>
@@ -2037,7 +2041,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" ht="94.5" spans="1:17">
+    <row r="24" ht="121.5" spans="1:17">
       <c r="A24" s="23"/>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
@@ -2358,8 +2362,8 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:H17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2457,7 +2461,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="94.5" spans="1:10">
+    <row r="5" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>29</v>
@@ -3191,8 +3195,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3290,7 +3294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="94.5" spans="1:10">
+    <row r="5" s="1" customFormat="1" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>29</v>

--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -29,9 +29,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="98">
   <si>
     <t>modbus cJSON</t>
+  </si>
+  <si>
+    <t>{
+    "modbus": [
+        {
+            "port": 0,
+            "baud": 9600,
+            "date_bit": 8,
+            "stop_bit": 1,
+            "parity": 0,
+            "device_num": "value",
+            "device_attr": [
+                {
+                    "device_type": "value",
+                    "device_no": "value",
+                    "device_addr": "value"
+                },
+                {
+                    "device_type": "value",
+                    "device_no": "value",
+                    "device_addr": "value"
+                }
+            ]
+        }
+    ],
+    "CAN": [
+        {
+            "port": 0,
+            "baud": 500000,
+            "device_num": "value",
+            "device_attr": [
+                {
+                    "device_type": "value",
+                    "device_no": "value",
+                    "master_addr": "value",
+                    "slave_addr": "value",
+                    "addr_format": "value"
+                }
+            ]
+        }
+    ]
+}</t>
   </si>
   <si>
     <t>层级1</t>
@@ -1091,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1157,6 +1199,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1556,50 +1604,54 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="13"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="J1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="22" t="s">
-        <v>9</v>
+      <c r="A3" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
@@ -1607,276 +1659,288 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="22" t="s">
-        <v>13</v>
+      <c r="C5" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24" t="s">
-        <v>14</v>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25" t="s">
-        <v>17</v>
+      <c r="C7" s="25"/>
+      <c r="D7" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25" t="s">
-        <v>19</v>
+      <c r="C8" s="25"/>
+      <c r="D8" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="25" t="s">
-        <v>21</v>
+      <c r="C9" s="25"/>
+      <c r="D9" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" ht="54" spans="1:17">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25" t="s">
-        <v>23</v>
+      <c r="C10" s="25"/>
+      <c r="D10" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="26" t="s">
-        <v>25</v>
+      <c r="C11" s="25"/>
+      <c r="D11" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22" t="s">
-        <v>27</v>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22" t="s">
-        <v>28</v>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" ht="121.5" spans="1:17">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
@@ -1887,19 +1951,19 @@
       <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
@@ -1910,16 +1974,16 @@
       <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="23"/>
-      <c r="B17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3"/>
       <c r="K17" s="21"/>
@@ -1931,16 +1995,16 @@
       <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="23"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
-        <v>36</v>
+      <c r="A18" s="25"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4"/>
       <c r="K18" s="21"/>
@@ -1952,19 +2016,19 @@
       <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="23"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -1975,19 +2039,19 @@
       <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="23"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
@@ -1998,333 +2062,333 @@
       <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="23"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="26" t="s">
-        <v>25</v>
+      <c r="A21" s="25"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="23"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="22" t="s">
-        <v>27</v>
+      <c r="A22" s="25"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="23"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="29"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="31"/>
       <c r="G23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" ht="121.5" spans="1:17">
-      <c r="A24" s="23"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="23"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="23"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="30" t="s">
-        <v>38</v>
+      <c r="A26" s="25"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="23"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="30" t="s">
-        <v>40</v>
+      <c r="A27" s="25"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:17">
-      <c r="A28" s="31"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="35"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="34"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="39"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="38"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C4:F4"/>
@@ -2351,6 +2415,7 @@
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="E23:E28"/>
     <mergeCell ref="H37:H38"/>
+    <mergeCell ref="J1:Q14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2362,8 +2427,8 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2397,39 +2462,39 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2439,14 +2504,14 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2455,16 +2520,16 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
@@ -2473,16 +2538,16 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
@@ -2491,17 +2556,17 @@
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
       <c r="I6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
@@ -2509,17 +2574,17 @@
       <c r="G7" s="18"/>
       <c r="H7" s="19"/>
       <c r="I7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
@@ -2527,7 +2592,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
       <c r="I8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -2536,14 +2601,14 @@
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
       <c r="I9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="3"/>
     </row>
@@ -2553,16 +2618,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2571,16 +2636,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
       <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2589,22 +2654,22 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
       <c r="I12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2613,17 +2678,17 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2631,27 +2696,27 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="3"/>
     </row>
@@ -2661,16 +2726,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="67.5" spans="1:10">
@@ -2679,16 +2744,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
       <c r="I17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="270" spans="1:10">
@@ -2697,16 +2762,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2715,16 +2780,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2733,16 +2798,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2751,13 +2816,13 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -2767,16 +2832,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2785,16 +2850,16 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" ht="135" spans="1:10">
@@ -2803,16 +2868,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2822,15 +2887,15 @@
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2840,12 +2905,12 @@
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" s="3"/>
     </row>
@@ -2857,11 +2922,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2873,13 +2938,13 @@
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2890,11 +2955,11 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J29" s="3"/>
     </row>
@@ -2907,13 +2972,13 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3195,8 +3260,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3216,7 +3281,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3230,39 +3295,39 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3272,14 +3337,14 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3288,16 +3353,16 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -3306,16 +3371,16 @@
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3324,17 +3389,17 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3342,27 +3407,27 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -3372,16 +3437,16 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="67.5" spans="1:10">
@@ -3390,16 +3455,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="270" spans="1:10">
@@ -3408,16 +3473,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:10">
@@ -3426,16 +3491,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -3444,16 +3509,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
@@ -3462,16 +3527,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
@@ -3480,13 +3545,13 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" s="16"/>
     </row>
@@ -3496,16 +3561,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:10">
@@ -3514,16 +3579,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
       <c r="I17" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="135" spans="1:10">
@@ -3532,16 +3597,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
@@ -3551,15 +3616,15 @@
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:10">
@@ -3569,12 +3634,12 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="3"/>
     </row>
@@ -3586,11 +3651,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:10">
@@ -3602,13 +3667,13 @@
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -3619,11 +3684,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" s="3"/>
     </row>
@@ -3636,13 +3701,13 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="99">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -42,17 +42,12 @@
             "date_bit": 8,
             "stop_bit": 1,
             "parity": 0,
-            "device_num": "value",
+            "device_num": 1,
             "device_attr": [
                 {
-                    "device_type": "value",
-                    "device_no": "value",
-                    "device_addr": "value"
-                },
-                {
-                    "device_type": "value",
-                    "device_no": "value",
-                    "device_addr": "value"
+                    "device_type": 1,
+                    "device_no": 1,
+                    "device_addr": 1
                 }
             ]
         }
@@ -61,14 +56,14 @@
         {
             "port": 0,
             "baud": 500000,
-            "device_num": "value",
+            "device_num": 1,
             "device_attr": [
                 {
-                    "device_type": "value",
-                    "device_no": "value",
-                    "master_addr": "value",
-                    "slave_addr": "value",
-                    "addr_format": "value"
+                    "device_type": 1,
+                    "device_no": 1,
+                    "master_addr": 1,
+                    "slave_addr": 1,
+                    "addr_format": 0
                 }
             ]
         }
@@ -261,19 +256,19 @@
     <t>area_attr[0]</t>
   </si>
   <si>
-    <t>reg_addr</t>
+    <t>reg_addr(a)</t>
   </si>
   <si>
     <t>寄存器地址</t>
   </si>
   <si>
-    <t>reg_num</t>
-  </si>
-  <si>
-    <t>结束地址</t>
-  </si>
-  <si>
-    <t>cycle</t>
+    <t>reg_num(n)</t>
+  </si>
+  <si>
+    <t>寄存器数量</t>
+  </si>
+  <si>
+    <t>cycle(c)</t>
   </si>
   <si>
     <t>读取周期（单位ms）</t>
@@ -297,13 +292,13 @@
     <t>node_attr[0]</t>
   </si>
   <si>
-    <t>model_id</t>
+    <t>model_id(i)</t>
   </si>
   <si>
     <t>物模型ID</t>
   </si>
   <si>
-    <t>model_type</t>
+    <t>model_type(mt)</t>
   </si>
   <si>
     <t>物模型类型
@@ -313,7 +308,7 @@
 3   s32</t>
   </si>
   <si>
-    <t>date_type</t>
+    <t>date_type(dt)</t>
   </si>
   <si>
     <t>数据类型
@@ -338,7 +333,7 @@
 18  BITS位+Enum枚举</t>
   </si>
   <si>
-    <t>bit_field_msb</t>
+    <t>bit_field_msb(m)</t>
   </si>
   <si>
     <t>组合使用，只有date_type为0 BITS时才使用。
@@ -346,22 +341,22 @@
 假如使用了一个byte中的bit7~bit4来表示一个数据，那么bit_field_msb=7，bit_field_lsb=4。</t>
   </si>
   <si>
-    <t>bit_field_lsb</t>
-  </si>
-  <si>
-    <t>factor</t>
+    <t>bit_field_lsb(l)</t>
+  </si>
+  <si>
+    <t>factor(f)</t>
   </si>
   <si>
     <t>比例</t>
   </si>
   <si>
-    <t>offset</t>
+    <t>offset(o)</t>
   </si>
   <si>
     <t>偏移</t>
   </si>
   <si>
-    <t>enum</t>
+    <t>enum(e)</t>
   </si>
   <si>
     <t>只有date_type为Enum时才使用。
@@ -375,13 +370,13 @@
 102-&gt;2</t>
   </si>
   <si>
-    <t>enum_num</t>
+    <t>enum_num(n)</t>
   </si>
   <si>
     <t>枚举体数量</t>
   </si>
   <si>
-    <t>enum_attr</t>
+    <t>enum_attr(a)</t>
   </si>
   <si>
     <t>enum_attr[0]</t>
@@ -402,16 +397,55 @@
     <t>举例子数值：1</t>
   </si>
   <si>
+    <t>{
+    "protocol": 0,
+    "device_type": 0,
+    "area": {
+        "area_num": 1,
+        "area_attr": [
+            {
+                "reg_addr": 0,
+                "reg_num": 10,
+                "cycle": 500
+            }
+        ]
+    },
+    "node": {
+        "node_num": 1,
+        "node_attr": [
+            {
+                "model_id": "value",
+                "model_type": "value",
+                "date_type": "value",
+                "reg_addr": "value",
+                "bit_field_msb": "value",
+                "bit_field_lsb": "value",
+                "factor": "value",
+                "offset": "value",
+                "enum": {
+                    "enum_num": "value",
+                    "enum_attr": [
+                        {
+                            "100": "value"
+                        }
+                    ]
+                }
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
     <t>CAN cJSON</t>
   </si>
   <si>
-    <t>frame_ID</t>
+    <t>frame_ID(fi)</t>
   </si>
   <si>
     <t>基帧ID</t>
   </si>
   <si>
-    <t>frame_byte</t>
+    <t>frame_byte(fb)</t>
   </si>
   <si>
     <t>byte0开始</t>
@@ -1576,8 +1610,8 @@
   <sheetPr/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2425,10 +2459,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2437,9 +2471,8 @@
     <col min="2" max="2" width="12.7964601769912" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.929203539823" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.0619469026549" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5929203539823" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.929203539823" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3893805309735" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.929203539823" style="1" customWidth="1"/>
     <col min="8" max="8" width="40.5840707964602" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.53097345132743" style="1" customWidth="1"/>
     <col min="10" max="10" width="84.1592920353982" style="1" customWidth="1"/>
@@ -3018,199 +3051,225 @@
       <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="A38" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -3248,6 +3307,7 @@
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A38:J55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3260,8 +3320,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3270,9 +3330,8 @@
     <col min="2" max="2" width="12.7964601769912" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5929203539823" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.929203539823" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.0619469026549" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5929203539823" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.929203539823" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3893805309735" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.929203539823" style="1" customWidth="1"/>
     <col min="8" max="8" width="40.5840707964602" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.53097345132743" style="1" customWidth="1"/>
     <col min="10" max="10" width="84.1592920353982" style="1" customWidth="1"/>
@@ -3281,7 +3340,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3491,7 +3550,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3500,7 +3559,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -3509,7 +3568,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3518,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
@@ -3673,7 +3732,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="2"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -2461,8 +2461,8 @@
   <sheetPr/>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3320,8 +3320,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="102">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -37,16 +37,76 @@
     <t>{
     "modbus": [
         {
-            "port": 0,
+            "port": 1,
             "baud": 9600,
             "date_bit": 8,
             "stop_bit": 1,
             "parity": 0,
-            "device_num": 1,
+            "device_num": 3,
             "device_attr": [
                 {
                     "device_type": 1,
                     "device_no": 1,
+                    "device_addr": 1
+                },
+                {
+                    "device_type": 1,
+                    "device_no": 2,
+                    "device_addr": 1
+                },
+                {
+                    "device_type": 1,
+                    "device_no": 3,
+                    "device_addr": 1
+                }
+            ]
+        },
+        {
+            "port": 2,
+            "baud": 9600,
+            "date_bit": 8,
+            "stop_bit": 1,
+            "parity": 0,
+            "device_num": 3,
+            "device_attr": [
+                {
+                    "device_type": 2,
+                    "device_no": 1,
+                    "device_addr": 1
+                },
+                {
+                    "device_type": 2,
+                    "device_no": 2,
+                    "device_addr": 1
+                },
+                {
+                    "device_type": 2,
+                    "device_no": 3,
+                    "device_addr": 1
+                }
+            ]
+        },
+        {
+            "port": 3,
+            "baud": 115200,
+            "date_bit": 8,
+            "stop_bit": 1,
+            "parity": 0,
+            "device_num": 3,
+            "device_attr": [
+                {
+                    "device_type": 3,
+                    "device_no": 1,
+                    "device_addr": 1
+                },
+                {
+                    "device_type": 3,
+                    "device_no": 2,
+                    "device_addr": 1
+                },
+                {
+                    "device_type": 3,
+                    "device_no": 3,
                     "device_addr": 1
                 }
             ]
@@ -54,13 +114,83 @@
     ],
     "CAN": [
         {
-            "port": 0,
+            "port": 1,
             "baud": 500000,
-            "device_num": 1,
+            "device_num": 3,
             "device_attr": [
                 {
                     "device_type": 1,
                     "device_no": 1,
+                    "master_addr": 1,
+                    "slave_addr": 1,
+                    "addr_format": 0
+                },
+                {
+                    "device_type": 2,
+                    "device_no": 2,
+                    "master_addr": 1,
+                    "slave_addr": 1,
+                    "addr_format": 0
+                },
+                {
+                    "device_type": 3,
+                    "device_no": 3,
+                    "master_addr": 1,
+                    "slave_addr": 1,
+                    "addr_format": 0
+                }
+            ]
+        },
+        {
+            "port": 2,
+            "baud": 500000,
+            "device_num": 3,
+            "device_attr": [
+                {
+                    "device_type": 1,
+                    "device_no": 1,
+                    "master_addr": 1,
+                    "slave_addr": 1,
+                    "addr_format": 0
+                },
+                {
+                    "device_type": 2,
+                    "device_no": 2,
+                    "master_addr": 1,
+                    "slave_addr": 1,
+                    "addr_format": 0
+                },
+                {
+                    "device_type": 3,
+                    "device_no": 3,
+                    "master_addr": 1,
+                    "slave_addr": 1,
+                    "addr_format": 0
+                }
+            ]
+        },
+        {
+            "port": 3,
+            "baud": 500000,
+            "device_num": 3,
+            "device_attr": [
+                {
+                    "device_type": 1,
+                    "device_no": 1,
+                    "master_addr": 1,
+                    "slave_addr": 1,
+                    "addr_format": 0
+                },
+                {
+                    "device_type": 2,
+                    "device_no": 2,
+                    "master_addr": 1,
+                    "slave_addr": 1,
+                    "addr_format": 0
+                },
+                {
+                    "device_type": 3,
+                    "device_no": 3,
                     "master_addr": 1,
                     "slave_addr": 1,
                     "addr_format": 0
@@ -283,7 +413,7 @@
     <t>node_num</t>
   </si>
   <si>
-    <t>点表数量</t>
+    <t>点表总数量（一份协议的转换点表分开几份JSON发，每份JSON最多发送32个点表，表示的是总的点表数量）</t>
   </si>
   <si>
     <t>node_attr</t>
@@ -292,7 +422,13 @@
     <t>node_attr[0]</t>
   </si>
   <si>
-    <t>model_id(i)</t>
+    <t>node_index(ni)</t>
+  </si>
+  <si>
+    <t>当前转换点表的索引，0开始。由于转换点表分开不同JSON发送，根据此索引来存储。</t>
+  </si>
+  <si>
+    <t>model_id(mi)</t>
   </si>
   <si>
     <t>物模型ID</t>
@@ -401,32 +537,66 @@
     "protocol": 0,
     "device_type": 0,
     "area": {
-        "area_num": 1,
+        "area_num": 3,
         "area_attr": [
             {
-                "reg_addr": 0,
-                "reg_num": 10,
-                "cycle": 500
+                "a": 0,
+                "n": 10,
+                "c": 500
+            },
+            {
+                "a": 100,
+                "n": 10,
+                "c": 500
+            },
+            {
+                "a": 200,
+                "n": 10,
+                "c": 500
             }
         ]
     },
     "node": {
-        "node_num": 1,
+        "node_num": 2,
         "node_attr": [
             {
-                "model_id": "value",
-                "model_type": "value",
-                "date_type": "value",
-                "reg_addr": "value",
-                "bit_field_msb": "value",
-                "bit_field_lsb": "value",
-                "factor": "value",
-                "offset": "value",
-                "enum": {
-                    "enum_num": "value",
-                    "enum_attr": [
+                "i": 20,
+                "mt": 0,
+                "dt": 2,
+                "a": 100,
+                "m": 5,
+                "l": 6,
+                "f": 1,
+                "o": 1,
+                "e": {
+                    "n": 2,
+                    "a": [
                         {
-                            "100": "value"
+                            "100": 200
+                        },
+                        {
+                            "200": 100
+                        }
+                    ]
+                }
+            },
+            {
+                "i": 300,
+                "mt": 0,
+                "dt": 2,
+                "a": 200,
+                "m": 5,
+                "l": 6,
+                "f": 1,
+                "o": 1,
+                "e": {
+                    "n": 2,
+                    "a": [
+                        {
+                            "100": 200
+                        },
+                        {
+                            "200": 100
                         }
                     ]
                 }
@@ -452,6 +622,61 @@
   </si>
   <si>
     <t>举例子数值：0</t>
+  </si>
+  <si>
+    <t>{
+    "protocol": 1,
+    "device_type": 0,
+    "node": {
+        "node_num": 2,
+        "node_attr": [
+            {
+                "i": 1,
+                "mt": 2,
+                "dt": 3,
+                "fi": 4,
+                "fb": 5,
+                "m": 1,
+                "l": 2,
+                "f": 1,
+                "o": 0,
+                "e": {
+                    "n": 2,
+                    "a": [
+                        {
+                            "100": 200
+                        },
+                        {
+                            "200": 111
+                        }
+                    ]
+                }
+            },
+            {
+                "i": 1,
+                "mt": 2,
+                "dt": 3,
+                "fi": 4,
+                "fb": 5,
+                "m": 1,
+                "l": 2,
+                "f": 1,
+                "o": 0,
+                "e": {
+                    "n": 2,
+                    "a": [
+                        {
+                            "100": 200
+                        },
+                        {
+                            "200": 111
+                        }
+                    ]
+                }
+            }
+        ]
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -1210,6 +1435,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1219,13 +1453,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1233,12 +1464,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1610,8 +1835,8 @@
   <sheetPr/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1628,26 +1853,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="22" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="J1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
@@ -1674,58 +1899,58 @@
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25"/>
@@ -1733,21 +1958,21 @@
       <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25"/>
@@ -1756,22 +1981,22 @@
       <c r="D6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25"/>
@@ -1788,14 +2013,14 @@
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="25"/>
@@ -1812,14 +2037,14 @@
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="25"/>
@@ -1836,14 +2061,14 @@
       <c r="H9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" ht="54" spans="1:17">
       <c r="A10" s="25"/>
@@ -1860,14 +2085,14 @@
       <c r="H10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="25"/>
@@ -1876,22 +2101,22 @@
       <c r="D11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="25"/>
@@ -1906,14 +2131,14 @@
         <v>13</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="25"/>
@@ -1923,19 +2148,19 @@
       <c r="E13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" ht="121.5" spans="1:17">
       <c r="A14" s="25"/>
@@ -1952,14 +2177,14 @@
       <c r="H14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="25"/>
@@ -1976,13 +2201,13 @@
       <c r="H15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="25"/>
@@ -1999,13 +2224,13 @@
       <c r="H16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="25"/>
@@ -2020,13 +2245,13 @@
         <v>13</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="25"/>
@@ -2034,20 +2259,20 @@
       <c r="C18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="25"/>
@@ -2056,21 +2281,21 @@
       <c r="D19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="25"/>
@@ -2087,13 +2312,13 @@
       <c r="H20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="25"/>
@@ -2102,8 +2327,8 @@
       <c r="D21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2118,8 +2343,8 @@
       <c r="D22" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2459,10 +2684,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2564,12 +2789,12 @@
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
@@ -2582,12 +2807,12 @@
       <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2601,11 +2826,11 @@
       <c r="C7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
@@ -2619,11 +2844,11 @@
       <c r="C8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2636,10 +2861,10 @@
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2653,9 +2878,9 @@
       <c r="E10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2671,9 +2896,9 @@
       <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2689,9 +2914,9 @@
       <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
@@ -2717,7 +2942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" ht="27" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="10" t="s">
@@ -2731,7 +2956,7 @@
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2761,9 +2986,9 @@
       <c r="E16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="3" t="s">
         <v>16</v>
       </c>
@@ -2771,7 +2996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" ht="67.5" spans="1:10">
+    <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -2779,17 +3004,17 @@
       <c r="E17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" ht="270" spans="1:10">
+    <row r="18" ht="67.5" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -2797,23 +3022,23 @@
       <c r="E18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" ht="270" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2821,8 +3046,8 @@
       <c r="I19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>57</v>
+      <c r="J19" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2831,7 +3056,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2839,8 +3064,8 @@
       <c r="I20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>75</v>
+      <c r="J20" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2857,7 +3082,9 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2"/>
@@ -2865,7 +3092,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2873,9 +3100,7 @@
       <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2"/>
@@ -2895,7 +3120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" ht="135" spans="1:10">
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -2906,28 +3131,28 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="14" t="s">
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" ht="135" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="17" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2943,9 +3168,11 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2"/>
@@ -2953,14 +3180,15 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2"/>
@@ -2969,15 +3197,12 @@
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="G28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2987,14 +3212,16 @@
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2"/>
@@ -3003,273 +3230,289 @@
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="A39" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -3293,21 +3536,22 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A3:A30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A3:A31"/>
     <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B13:B30"/>
+    <mergeCell ref="B13:B31"/>
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C15:C30"/>
+    <mergeCell ref="C15:C31"/>
     <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D15:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A38:J55"/>
+    <mergeCell ref="D15:D31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A39:J56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3318,10 +3562,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3340,7 +3584,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3454,7 +3698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
@@ -3468,7 +3712,7 @@
       <c r="I7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3498,9 +3742,9 @@
       <c r="E9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3508,7 +3752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="67.5" spans="1:10">
+    <row r="10" s="1" customFormat="1" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -3516,17 +3760,17 @@
       <c r="E10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="270" spans="1:10">
+    <row r="11" s="1" customFormat="1" ht="67.5" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -3534,32 +3778,32 @@
       <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
+    <row r="12" s="1" customFormat="1" ht="270" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="10" t="s">
-        <v>94</v>
+      <c r="E12" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>95</v>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -3576,7 +3820,7 @@
       <c r="I13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3586,7 +3830,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="10" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3594,8 +3838,8 @@
       <c r="I14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>75</v>
+      <c r="J14" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
@@ -3612,7 +3856,9 @@
       <c r="I15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="18" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:10">
       <c r="A16" s="2"/>
@@ -3620,7 +3866,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3628,11 +3874,9 @@
       <c r="I16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:10">
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:12">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -3640,9 +3884,9 @@
       <c r="E17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="10" t="s">
         <v>16</v>
       </c>
@@ -3650,43 +3894,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="135" spans="1:10">
+    <row r="18" s="1" customFormat="1" spans="1:12">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="14" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:10">
+    <row r="19" s="1" customFormat="1" ht="135" spans="1:12">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:10">
+    <row r="20" s="1" customFormat="1" spans="1:12">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -3698,79 +3942,229 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:12">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:12">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="G22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:12">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:12">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:12">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -3788,17 +4182,19 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="B6:B24"/>
-    <mergeCell ref="C8:C24"/>
-    <mergeCell ref="D8:D24"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="B6:B25"/>
+    <mergeCell ref="C8:C25"/>
+    <mergeCell ref="D8:D25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B30:L39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="104">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>area_attr[0]</t>
+  </si>
+  <si>
+    <t>fun_code(fc)</t>
+  </si>
+  <si>
+    <t>功能码</t>
   </si>
   <si>
     <t>reg_addr(a)</t>
@@ -1392,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1458,6 +1464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1909,7 +1918,7 @@
       <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="11"/>
@@ -1931,7 +1940,7 @@
       <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1953,9 +1962,9 @@
       <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12"/>
@@ -1975,10 +1984,10 @@
       <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="11"/>
@@ -1999,10 +2008,10 @@
       <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6"/>
@@ -2023,10 +2032,10 @@
       <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="6"/>
@@ -2047,10 +2056,10 @@
       <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="6"/>
@@ -2071,10 +2080,10 @@
       <c r="Q9" s="21"/>
     </row>
     <row r="10" ht="54" spans="1:17">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="6"/>
@@ -2095,10 +2104,10 @@
       <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="11"/>
@@ -2119,10 +2128,10 @@
       <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="10"/>
@@ -2141,11 +2150,11 @@
       <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="11"/>
@@ -2163,11 +2172,11 @@
       <c r="Q13" s="21"/>
     </row>
     <row r="14" ht="121.5" spans="1:17">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="10" t="s">
         <v>30</v>
       </c>
@@ -2187,34 +2196,34 @@
       <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="10" t="s">
         <v>34</v>
       </c>
@@ -2224,39 +2233,39 @@
       <c r="H16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="25"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="25"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="11"/>
@@ -2266,18 +2275,18 @@
         <v>11</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="25"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="10" t="s">
         <v>15</v>
       </c>
@@ -2289,18 +2298,18 @@
       <c r="H19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="25"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
@@ -2312,19 +2321,19 @@
       <c r="H20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="25"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="28" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="11"/>
@@ -2337,10 +2346,10 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="25"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="24" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="11"/>
@@ -2351,25 +2360,25 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="25"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" ht="121.5" spans="1:17">
-      <c r="A24" s="25"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="10" t="s">
         <v>30</v>
       </c>
@@ -2381,270 +2390,270 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="25"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="25"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="32" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="33" t="s">
         <v>39</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="25"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="32" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="33" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:17">
-      <c r="A28" s="33"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="36"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="41"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="40"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="41"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2684,10 +2693,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:H17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2875,7 +2884,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="11"/>
@@ -2926,75 +2935,75 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:10">
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" ht="27" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2"/>
@@ -3004,9 +3013,9 @@
       <c r="E17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="3" t="s">
         <v>16</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" ht="67.5" spans="1:10">
+    <row r="18" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -3022,17 +3031,17 @@
       <c r="E18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" ht="270" spans="1:10">
+    <row r="19" ht="67.5" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -3040,9 +3049,9 @@
       <c r="E19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="3" t="s">
         <v>16</v>
       </c>
@@ -3050,13 +3059,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" ht="270" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3064,8 +3073,8 @@
       <c r="I20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>57</v>
+      <c r="J20" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3074,16 +3083,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>77</v>
+      <c r="J21" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3092,7 +3101,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3100,7 +3109,9 @@
       <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2"/>
@@ -3108,7 +3119,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3116,8 +3127,8 @@
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>80</v>
+      <c r="J23" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3126,7 +3137,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3134,26 +3145,24 @@
       <c r="I24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" ht="135" spans="1:10">
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>84</v>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3161,34 +3170,36 @@
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="E26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" ht="135" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="E27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="3"/>
+      <c r="I27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2"/>
@@ -3196,13 +3207,16 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3211,17 +3225,15 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2"/>
@@ -3230,14 +3242,13 @@
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>91</v>
+      <c r="G30" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2"/>
@@ -3246,81 +3257,91 @@
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="20"/>
+      <c r="A41" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -3511,8 +3532,32 @@
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
     </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="41">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -3524,10 +3569,10 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="E16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
@@ -3537,21 +3582,23 @@
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B13:B31"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C15:C31"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D15:D31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A3:A33"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B33"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C16:C33"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D16:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F29:F33"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A39:J56"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A41:J58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3584,7 +3631,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3683,7 +3730,7 @@
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3695,14 +3742,14 @@
         <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3713,17 +3760,17 @@
         <v>16</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3740,7 +3787,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
@@ -3749,7 +3796,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
@@ -3758,7 +3805,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3767,7 +3814,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="67.5" spans="1:10">
@@ -3776,7 +3823,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
@@ -3785,7 +3832,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="270" spans="1:10">
@@ -3794,7 +3841,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3803,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -3812,7 +3859,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3821,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
@@ -3830,7 +3877,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3839,7 +3886,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
@@ -3848,7 +3895,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3857,7 +3904,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:10">
@@ -3866,7 +3913,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3882,7 +3929,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3891,7 +3938,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:12">
@@ -3900,7 +3947,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
@@ -3909,7 +3956,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="135" spans="1:12">
@@ -3918,7 +3965,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3927,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:12">
@@ -3937,7 +3984,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3945,7 +3992,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:12">
@@ -3955,7 +4002,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3972,7 +4019,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
@@ -3988,13 +4035,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
@@ -4005,7 +4052,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
@@ -4022,18 +4069,18 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>

--- a/User/Protocol/点表转换V1.5.xlsx
+++ b/User/Protocol/点表转换V1.5.xlsx
@@ -2695,8 +2695,8 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
